--- a/INFORMATION/correlaciones.xlsx
+++ b/INFORMATION/correlaciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>cys</t>
   </si>
@@ -122,6 +122,1047 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>MSDi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strong selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61125000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medium selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6087499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weak selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60750000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="38709120"/>
+        <c:axId val="38710656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="38709120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38710656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38710656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>R^2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> exp - teorico</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38709120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Pn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strong selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68624999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>medium selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70874999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weak selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72750000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'R^2'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no selection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'R^2'!$D$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>cys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fabp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>globins</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>phoslip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rrm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>serinProteases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sh3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>snakesToxin</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'R^2'!$D$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72999999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156463488"/>
+        <c:axId val="156465024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156463488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156465024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156465024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>R^2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> exp - teorico</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156463488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3402</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1132417</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24569</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,32 +1506,32 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E2">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="F2">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G2">
-        <v>0.56999999999999995</v>
+        <v>0.59</v>
       </c>
       <c r="H2">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I2">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="J2">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="K2">
         <v>0.74</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L9" si="0">AVERAGE(D2:K2)</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="L2:L10" si="0">AVERAGE(D2:K2)</f>
+        <v>0.61125000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -500,19 +1541,19 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E3">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="F3">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G3">
         <v>0.61</v>
       </c>
       <c r="H3">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I3">
         <v>0.3</v>
@@ -521,7 +1562,7 @@
         <v>0.51</v>
       </c>
       <c r="K3">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -535,32 +1576,32 @@
         <v>7</v>
       </c>
       <c r="D4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.76</v>
+      </c>
+      <c r="F4">
+        <v>0.74</v>
+      </c>
+      <c r="G4">
+        <v>0.62</v>
+      </c>
+      <c r="H4">
+        <v>0.87</v>
+      </c>
+      <c r="I4">
         <v>0.31</v>
       </c>
-      <c r="E4">
+      <c r="J4">
+        <v>0.52</v>
+      </c>
+      <c r="K4">
         <v>0.77</v>
-      </c>
-      <c r="F4">
-        <v>0.75</v>
-      </c>
-      <c r="G4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H4">
-        <v>0.85</v>
-      </c>
-      <c r="I4">
-        <v>0.32</v>
-      </c>
-      <c r="J4">
-        <v>0.49</v>
-      </c>
-      <c r="K4">
-        <v>0.78</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.60625000000000007</v>
+        <v>0.6100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -573,139 +1614,133 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E5">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="F5">
         <v>0.73</v>
       </c>
       <c r="G5">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="H5">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="I5">
         <v>0.31</v>
       </c>
       <c r="J5">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.59375</v>
+        <v>0.60750000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>C2</f>
-        <v>strong selection</v>
-      </c>
-      <c r="D6">
-        <v>0.45</v>
-      </c>
-      <c r="E6">
-        <v>0.86</v>
-      </c>
-      <c r="F6">
-        <v>0.72</v>
-      </c>
-      <c r="G6">
-        <v>0.64</v>
-      </c>
-      <c r="H6">
-        <v>0.92</v>
-      </c>
-      <c r="I6">
-        <v>0.73</v>
-      </c>
-      <c r="J6">
-        <v>0.6</v>
-      </c>
-      <c r="K6">
-        <v>0.83</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.71875</v>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" ref="C7:C9" si="1">C3</f>
-        <v>medium selection</v>
+        <f>C2</f>
+        <v>strong selection</v>
       </c>
       <c r="D7">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E7">
+        <v>0.83</v>
+      </c>
+      <c r="F7">
+        <v>0.63</v>
+      </c>
+      <c r="G7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.92</v>
+      </c>
+      <c r="I7">
+        <v>0.7</v>
+      </c>
+      <c r="J7">
+        <v>0.59</v>
+      </c>
+      <c r="K7">
         <v>0.84</v>
-      </c>
-      <c r="F7">
-        <v>0.75</v>
-      </c>
-      <c r="G7">
-        <v>0.67</v>
-      </c>
-      <c r="H7">
-        <v>0.94</v>
-      </c>
-      <c r="I7">
-        <v>0.78</v>
-      </c>
-      <c r="J7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K7">
-        <v>0.82</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.72750000000000004</v>
+        <v>0.68624999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>weak selection</v>
+        <f t="shared" ref="C8:C10" si="1">C3</f>
+        <v>medium selection</v>
       </c>
       <c r="D8">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="E8">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="F8">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="G8">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H8">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="I8">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="J8">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="K8">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0.71</v>
+        <v>0.70874999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -713,44 +1748,92 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>no selection</v>
+        <v>weak selection</v>
       </c>
       <c r="D9">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E9">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F9">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="G9">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="H9">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I9">
         <v>0.75</v>
       </c>
       <c r="J9">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="K9">
         <v>0.84</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0.72250000000000003</v>
+        <v>0.72750000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>no selection</v>
+      </c>
+      <c r="D10">
+        <v>0.44</v>
+      </c>
+      <c r="E10">
+        <v>0.86</v>
+      </c>
+      <c r="F10">
+        <v>0.71</v>
+      </c>
+      <c r="G10">
+        <v>0.62</v>
+      </c>
+      <c r="H10">
+        <v>0.94</v>
+      </c>
+      <c r="I10">
+        <v>0.7</v>
+      </c>
+      <c r="J10">
+        <v>0.72</v>
+      </c>
+      <c r="K10">
+        <v>0.85</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.72999999999999987</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:L5">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -762,7 +1845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L9">
+  <conditionalFormatting sqref="D7:D10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -774,7 +1857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D9">
+  <conditionalFormatting sqref="E7:E10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -786,7 +1869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E9">
+  <conditionalFormatting sqref="F7:F10">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -798,7 +1881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F9">
+  <conditionalFormatting sqref="G7:G10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -810,7 +1893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G9">
+  <conditionalFormatting sqref="H7:H10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -822,7 +1905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H9">
+  <conditionalFormatting sqref="I7:I10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -834,7 +1917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I9">
+  <conditionalFormatting sqref="J7:J10">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -846,7 +1929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J9">
+  <conditionalFormatting sqref="K7:K10">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -858,7 +1941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K9">
+  <conditionalFormatting sqref="D2:D5">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -870,7 +1953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D5">
+  <conditionalFormatting sqref="E1:E5">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -882,7 +1965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E5">
+  <conditionalFormatting sqref="F2:F5">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -894,7 +1977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F5">
+  <conditionalFormatting sqref="G2:G5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -906,7 +1989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G5">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -918,7 +2001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
+  <conditionalFormatting sqref="I2:I5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -930,7 +2013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I5">
+  <conditionalFormatting sqref="J2:J5">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -942,7 +2025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J5">
+  <conditionalFormatting sqref="K2:K5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -954,7 +2037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K5">
+  <conditionalFormatting sqref="E6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -967,6 +2050,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/INFORMATION/correlaciones.xlsx
+++ b/INFORMATION/correlaciones.xlsx
@@ -131,10 +131,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="109"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="9"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -160,8 +160,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -177,10 +177,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$1:$L$1</c:f>
               <c:strCache>
@@ -214,8 +216,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$2:$L$2</c:f>
               <c:numCache>
@@ -250,7 +252,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -267,10 +269,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$1:$L$1</c:f>
               <c:strCache>
@@ -304,8 +308,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$3:$L$3</c:f>
               <c:numCache>
@@ -340,7 +344,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -357,10 +361,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$1:$L$1</c:f>
               <c:strCache>
@@ -394,8 +400,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$4:$L$4</c:f>
               <c:numCache>
@@ -430,7 +436,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -447,10 +453,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$1:$L$1</c:f>
               <c:strCache>
@@ -484,8 +492,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$5:$L$5</c:f>
               <c:numCache>
@@ -520,7 +528,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -531,13 +539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="38709120"/>
-        <c:axId val="38710656"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="38709120"/>
+        <c:axId val="84179968"/>
+        <c:axId val="155449984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84179968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,15 +552,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38710656"/>
+        <c:crossAx val="155449984"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="38710656"/>
+        <c:axId val="155449984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,13 +575,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>R^2</a:t>
+                  <a:t>R^2 exp - teorico</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t> exp - teorico</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -589,9 +587,9 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38709120"/>
+        <c:crossAx val="84179968"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -618,10 +616,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="109"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="9"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -636,7 +634,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR"/>
-              <a:t>Pn</a:t>
+              <a:t>mean Pn </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -647,8 +645,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -664,10 +662,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$6:$L$6</c:f>
               <c:strCache>
@@ -701,8 +701,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$7:$L$7</c:f>
               <c:numCache>
@@ -737,7 +737,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -754,10 +754,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$6:$L$6</c:f>
               <c:strCache>
@@ -791,8 +793,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$8:$L$8</c:f>
               <c:numCache>
@@ -827,7 +829,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -844,10 +846,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$6:$L$6</c:f>
               <c:strCache>
@@ -881,8 +885,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$9:$L$9</c:f>
               <c:numCache>
@@ -917,7 +921,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -934,10 +938,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:strRef>
               <c:f>'R^2'!$D$6:$L$6</c:f>
               <c:strCache>
@@ -971,8 +977,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'R^2'!$D$10:$L$10</c:f>
               <c:numCache>
@@ -1007,7 +1013,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1018,13 +1024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="156463488"/>
-        <c:axId val="156465024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="156463488"/>
+        <c:axId val="131798528"/>
+        <c:axId val="131800064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131798528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,15 +1037,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156465024"/>
+        <c:crossAx val="131800064"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="156465024"/>
+        <c:axId val="131800064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,13 +1060,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>R^2</a:t>
+                  <a:t>R^2 exp - teorico</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t> exp - teorico</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1076,9 +1072,9 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156463488"/>
+        <c:crossAx val="131798528"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1111,7 +1107,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>105833</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>3402</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1133,15 +1129,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1132417</xdr:colOff>
+      <xdr:colOff>1132418</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:rowOff>137584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>24569</xdr:rowOff>
+      <xdr:rowOff>140986</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1454,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
